--- a/excel/excel-training/Level 2/Source Data Cleanup - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Source Data Cleanup - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD1EC86-CBF5-421C-B7D3-9E3D92B34930}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FF34E-9B62-E64B-ABB5-CA91DF40315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="12" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="Text to Date" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$4:$I$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Text to Date'!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId8"/>
-    <pivotCache cacheId="11" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -153,234 +154,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Region - Geography</t>
-  </si>
-  <si>
-    <t>Jan-5-15</t>
-  </si>
-  <si>
-    <t>Mar-12-15</t>
-  </si>
-  <si>
-    <t>Mar-27-15</t>
-  </si>
-  <si>
-    <t>Apr-16-15</t>
-  </si>
-  <si>
-    <t>Apr-25-15</t>
-  </si>
-  <si>
-    <t>Apr-28-15</t>
-  </si>
-  <si>
-    <t>Jul-3-15</t>
-  </si>
-  <si>
-    <t>Jul-6-15</t>
-  </si>
-  <si>
-    <t>Jul-8-15</t>
-  </si>
-  <si>
-    <t>Jul-12-15</t>
-  </si>
-  <si>
-    <t>Aug-11-15</t>
-  </si>
-  <si>
-    <t>Aug-20-15</t>
-  </si>
-  <si>
-    <t>Sep-23-15</t>
-  </si>
-  <si>
-    <t>Sep-26-15</t>
-  </si>
-  <si>
-    <t>Nov-7-15</t>
-  </si>
-  <si>
-    <t>Nov-9-15</t>
-  </si>
-  <si>
-    <t>Nov-18-15</t>
-  </si>
-  <si>
-    <t>Dec-15-15</t>
-  </si>
-  <si>
-    <t>Dec-25-15</t>
-  </si>
-  <si>
-    <t>Dec-27-15</t>
-  </si>
-  <si>
-    <t>Mar-16-15</t>
-  </si>
-  <si>
-    <t>Sep-16-15</t>
-  </si>
-  <si>
-    <t>Jan-15-16</t>
-  </si>
-  <si>
-    <t>Jan-29-16</t>
-  </si>
-  <si>
-    <t>Jan-31-16</t>
-  </si>
-  <si>
-    <t>Feb-7-16</t>
-  </si>
-  <si>
-    <t>Feb-26-16</t>
-  </si>
-  <si>
-    <t>Mar-6-16</t>
-  </si>
-  <si>
-    <t>Mar-15-16</t>
-  </si>
-  <si>
-    <t>Mar-27-16</t>
-  </si>
-  <si>
-    <t>Apr-15-16</t>
-  </si>
-  <si>
-    <t>Apr-27-16</t>
-  </si>
-  <si>
-    <t>May-1-16</t>
-  </si>
-  <si>
-    <t>May-12-16</t>
-  </si>
-  <si>
-    <t>Jun-1-16</t>
-  </si>
-  <si>
-    <t>Jun-7-16</t>
-  </si>
-  <si>
-    <t>Jun-8-16</t>
-  </si>
-  <si>
-    <t>Jun-20-16</t>
-  </si>
-  <si>
-    <t>Jun-23-16</t>
-  </si>
-  <si>
-    <t>Jul-5-16</t>
-  </si>
-  <si>
-    <t>Jul-15-16</t>
-  </si>
-  <si>
-    <t>Jul-20-16</t>
-  </si>
-  <si>
-    <t>Aug-4-16</t>
-  </si>
-  <si>
-    <t>Aug-15-16</t>
-  </si>
-  <si>
-    <t>Aug-17-16</t>
-  </si>
-  <si>
-    <t>Aug-27-16</t>
-  </si>
-  <si>
-    <t>Sep-4-16</t>
-  </si>
-  <si>
-    <t>Sep-5-16</t>
-  </si>
-  <si>
-    <t>Sep-7-16</t>
-  </si>
-  <si>
-    <t>Sep-24-16</t>
-  </si>
-  <si>
-    <t>Sep-30-16</t>
-  </si>
-  <si>
-    <t>Oct-18-16</t>
-  </si>
-  <si>
-    <t>Nov-18-16</t>
-  </si>
-  <si>
-    <t>Dec-9-16</t>
-  </si>
-  <si>
-    <t>Dec-16-16</t>
-  </si>
-  <si>
-    <t>Dec-27-16</t>
-  </si>
-  <si>
     <t>Sales Data</t>
   </si>
   <si>
@@ -496,6 +269,9 @@
   </si>
   <si>
     <t>Stage 2: Data Cleanup</t>
+  </si>
+  <si>
+    <t>Blanks</t>
   </si>
 </sst>
 </file>
@@ -504,11 +280,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="[$-409]ddd\ m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="171" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -713,9 +489,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,9 +529,6 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -769,6 +541,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -2719,7 +2495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2805,7 +2581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -3185,99 +2961,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E645B4-9640-4937-B619-B6F75A3C5B0E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="36">
+    <row r="1" spans="1:11" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="36">
+      <c r="C4" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="36">
+      <c r="C5" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="34">
         <v>3</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="36">
+      <c r="C6" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="34">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="36">
+      <c r="C7" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="34">
         <v>5</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="36">
+      <c r="C8" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="34">
         <v>6</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
-        <v>148</v>
+      <c r="C9" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3300,63 +3076,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
+        <v>42009</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -3364,25 +3140,29 @@
       <c r="C5">
         <v>2015</v>
       </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="G5" s="42">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
+      <c r="I5">
+        <f>COUNTA(A5:H5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
+        <v>42075</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3390,25 +3170,29 @@
       <c r="C6">
         <v>2015</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="G6" s="42">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
+      <c r="I6">
+        <f>COUNTA(A6:H6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="44">
+        <v>42079</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3416,25 +3200,30 @@
       <c r="C7">
         <v>2015</v>
       </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7" s="42">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
         <v>1150</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
+      <c r="I7">
+        <f>COUNTA(A7:H7)</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="44">
+        <v>42090</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -3442,29 +3231,59 @@
       <c r="C8">
         <v>2015</v>
       </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="G8" s="42">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
+      <c r="I8">
+        <f>COUNTA(A8:H8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="44">
+        <v>42110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="42">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <v>400</v>
+      </c>
+      <c r="I9">
+        <f>COUNTA(A9:H9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="44">
+        <v>42110</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -3472,25 +3291,29 @@
       <c r="C10">
         <v>2015</v>
       </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="42">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>510</v>
+      </c>
+      <c r="I10">
+        <f>COUNTA(A10:H10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="44">
+        <v>42119</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -3498,25 +3321,29 @@
       <c r="C11">
         <v>2015</v>
       </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="42">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <f>COUNTA(A11:H11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="44">
+        <v>42122</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -3524,51 +3351,59 @@
       <c r="C12">
         <v>2015</v>
       </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="42">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>92</v>
+      </c>
+      <c r="I12">
+        <f>COUNTA(A12:H12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="44">
+        <v>42188</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2015</v>
       </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="42">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1">
+        <v>350</v>
+      </c>
+      <c r="I13">
+        <f>COUNTA(A13:H13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="44">
+        <v>42191</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3576,25 +3411,29 @@
       <c r="C14">
         <v>2015</v>
       </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="42">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
+      <c r="H14" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="I14">
+        <f>COUNTA(A14:H14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="44">
+        <v>42191</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3602,25 +3441,29 @@
       <c r="C15">
         <v>2015</v>
       </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2">
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
+      <c r="G15" s="42">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>660</v>
+      </c>
+      <c r="I15">
+        <f>COUNTA(A15:H15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="44">
+        <v>42193</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3628,25 +3471,29 @@
       <c r="C16">
         <v>2015</v>
       </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
+      <c r="G16" s="42">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>276</v>
+      </c>
+      <c r="I16">
+        <f>COUNTA(A16:H16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="44">
+        <v>42197</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3654,25 +3501,29 @@
       <c r="C17">
         <v>2015</v>
       </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="42">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
+      <c r="H17" s="1">
+        <v>530</v>
+      </c>
+      <c r="I17">
+        <f>COUNTA(A17:H17)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="44">
+        <v>42227</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3680,25 +3531,29 @@
       <c r="C18">
         <v>2015</v>
       </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="2">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="42">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <f>COUNTA(A18:H18)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="44">
+        <v>42236</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3706,25 +3561,29 @@
       <c r="C19">
         <v>2015</v>
       </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="42">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2250</v>
+      </c>
+      <c r="I19">
+        <f>COUNTA(A19:H19)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="44">
+        <v>42263</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3732,25 +3591,29 @@
       <c r="C20">
         <v>2015</v>
       </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="2">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="42">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="I20">
+        <f>COUNTA(A20:H20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="44">
+        <v>42270</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3758,25 +3621,29 @@
       <c r="C21">
         <v>2015</v>
       </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="42">
         <v>25</v>
       </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="2">
-        <v>149.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
+      <c r="H21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <f>COUNTA(A21:H21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="44">
+        <v>42273</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3784,55 +3651,89 @@
       <c r="C22">
         <v>2015</v>
       </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
       <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="42">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1">
+        <v>74.75</v>
+      </c>
+      <c r="I22">
+        <f>COUNTA(A22:H22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="44">
+        <v>42315</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>2015</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="42">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I23">
+        <f>COUNTA(A23:H23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="44">
+        <v>42317</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>2015</v>
       </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="2">
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="42">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="I24">
+        <f>COUNTA(A24:H24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="44">
+        <v>42326</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3840,25 +3741,29 @@
       <c r="C25">
         <v>2015</v>
       </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
       <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="2">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="42">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <f>COUNTA(A25:H25)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="44">
+        <v>42353</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -3866,25 +3771,29 @@
       <c r="C26">
         <v>2015</v>
       </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
         <v>10</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="2">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>71</v>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="42">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I26">
+        <f>COUNTA(A26:H26)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="44">
+        <v>42353</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -3892,157 +3801,209 @@
       <c r="C27">
         <v>2015</v>
       </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
       <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="42">
+        <v>40</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3240</v>
+      </c>
+      <c r="I27">
+        <f>COUNTA(A27:H27)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="44">
+        <v>42363</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>2015</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="42">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1">
+        <v>105</v>
+      </c>
+      <c r="I28">
+        <f>COUNTA(A28:H28)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="44">
+        <v>42365</v>
+      </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
         <v>2015</v>
       </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
       <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="42">
+        <v>200</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1930</v>
+      </c>
+      <c r="I29">
+        <f>COUNTA(A29:H29)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="44">
+        <v>42384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2016</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="42">
         <v>40</v>
       </c>
-      <c r="J29" s="2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>2015</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" s="1">
+        <v>250</v>
+      </c>
+      <c r="I30">
+        <f>COUNTA(A30:H30)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="44">
+        <v>42398</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="42">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1">
+        <v>482.5</v>
+      </c>
+      <c r="I31">
+        <f>COUNTA(A31:H31)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="44">
+        <v>42400</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2016</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>2015</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>2015</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="42">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1275</v>
+      </c>
+      <c r="I32">
+        <f>COUNTA(A32:H32)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="44">
+        <v>42407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>2015</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="42">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1950</v>
+      </c>
+      <c r="I33">
+        <f>COUNTA(A33:H33)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="44">
+        <v>42426</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -4050,29 +4011,59 @@
       <c r="C34">
         <v>2016</v>
       </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
       <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>78</v>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="42">
+        <v>300</v>
+      </c>
+      <c r="H34" s="1">
+        <v>13800</v>
+      </c>
+      <c r="I34">
+        <f>COUNTA(A34:H34)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="44">
+        <v>42435</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>2016</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="42">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <f>COUNTA(A35:H35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="44">
+        <v>42444</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -4080,25 +4071,29 @@
       <c r="C36">
         <v>2016</v>
       </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
       <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="2">
-        <v>482.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="42">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1">
+        <v>300</v>
+      </c>
+      <c r="I36">
+        <f>COUNTA(A36:H36)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="44">
+        <v>42456</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -4106,25 +4101,29 @@
       <c r="C37">
         <v>2016</v>
       </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
       <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
         <v>10</v>
       </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>80</v>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="42">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="I37">
+        <f>COUNTA(A37:H37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="44">
+        <v>42456</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -4132,155 +4131,179 @@
       <c r="C38">
         <v>2016</v>
       </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
       <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
         <v>10</v>
       </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="42">
+        <v>40</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1560</v>
+      </c>
+      <c r="I38">
+        <f>COUNTA(A38:H38)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="44">
+        <v>42475</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>2016</v>
       </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
       <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="2">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="42">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1">
+        <v>184</v>
+      </c>
+      <c r="I39">
+        <f>COUNTA(A39:H39)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="44">
+        <v>42487</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>2016</v>
       </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
       <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="I40" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>83</v>
+      <c r="G40" s="42">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1">
+        <v>919.99999999999989</v>
+      </c>
+      <c r="I40">
+        <f>COUNTA(A40:H40)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="44">
+        <v>42491</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>2016</v>
       </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
       <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
         <v>10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="F41" t="s">
         <v>28</v>
       </c>
-      <c r="I41" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
+      <c r="G41" s="42">
+        <v>25</v>
+      </c>
+      <c r="H41" s="1">
+        <v>450</v>
+      </c>
+      <c r="I41">
+        <f>COUNTA(A41:H41)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="44">
+        <v>42502</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>2016</v>
       </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
       <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="2">
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="42">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1">
+        <v>552</v>
+      </c>
+      <c r="I42">
+        <f>COUNTA(A42:H42)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="44">
+        <v>42522</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>2016</v>
       </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="42">
+        <v>30</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1590</v>
+      </c>
+      <c r="I43">
+        <f>COUNTA(A43:H43)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="44">
+        <v>42528</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -4288,25 +4311,29 @@
       <c r="C44">
         <v>2016</v>
       </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
       <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="42">
+        <v>25</v>
+      </c>
+      <c r="H44" s="1">
+        <v>229.99999999999997</v>
+      </c>
+      <c r="I44">
+        <f>COUNTA(A44:H44)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="44">
+        <v>42529</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -4314,25 +4341,29 @@
       <c r="C45">
         <v>2016</v>
       </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
       <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="2">
-        <v>919.99999999999989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="42">
+        <v>50</v>
+      </c>
+      <c r="H45" s="1">
+        <v>300</v>
+      </c>
+      <c r="I45">
+        <f>COUNTA(A45:H45)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="44">
+        <v>42541</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -4340,209 +4371,269 @@
       <c r="C46">
         <v>2016</v>
       </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
       <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="42">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>230</v>
+      </c>
+      <c r="I46">
+        <f>COUNTA(A46:H46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="44">
+        <v>42544</v>
+      </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47">
         <v>2016</v>
       </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
       <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
         <v>10</v>
       </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="2">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="42">
+        <v>40</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1392</v>
+      </c>
+      <c r="I47">
+        <f>COUNTA(A47:H47)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="44">
+        <v>42556</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>2016</v>
       </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
       <c r="E48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="2">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="42">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1">
+        <v>680</v>
+      </c>
+      <c r="I48">
+        <f>COUNTA(A48:H48)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="44">
+        <v>42566</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>2016</v>
       </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
       <c r="E49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="s">
+      <c r="F49" t="s">
         <v>32</v>
       </c>
-      <c r="I49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
+      <c r="G49" s="42">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1">
+        <v>200</v>
+      </c>
+      <c r="I49">
+        <f>COUNTA(A49:H49)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="44">
+        <v>42566</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>2016</v>
       </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
       <c r="E50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" s="2">
-        <v>229.99999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="42">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1">
+        <v>800</v>
+      </c>
+      <c r="I50">
+        <f>COUNTA(A50:H50)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="44">
+        <v>42571</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>2016</v>
       </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
       <c r="E51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
         <v>10</v>
       </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="42">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>120</v>
+      </c>
+      <c r="I51">
+        <f>COUNTA(A51:H51)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="44">
+        <v>42586</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>2016</v>
       </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
       <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="42">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>220</v>
+      </c>
+      <c r="I52">
+        <f>COUNTA(A52:H52)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="44">
+        <v>42597</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>2016</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
         <v>24</v>
       </c>
-      <c r="H52" t="s">
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="42">
         <v>25</v>
       </c>
-      <c r="I52" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
+      <c r="H53" s="1">
+        <v>533.75</v>
+      </c>
+      <c r="I53">
+        <f>COUNTA(A53:H53)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="44">
+        <v>42599</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>2016</v>
       </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
       <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
         <v>10</v>
       </c>
-      <c r="H54" t="s">
+      <c r="F54" t="s">
         <v>25</v>
       </c>
-      <c r="I54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>94</v>
+      <c r="G54" s="42">
+        <v>87</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1218</v>
+      </c>
+      <c r="I54">
+        <f>COUNTA(A54:H54)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="44">
+        <v>42609</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -4550,25 +4641,29 @@
       <c r="C55">
         <v>2016</v>
       </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
       <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>50</v>
-      </c>
-      <c r="J55" s="2">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="42">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1">
+        <v>456</v>
+      </c>
+      <c r="I55">
+        <f>COUNTA(A55:H55)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="44">
+        <v>42617</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -4576,25 +4671,29 @@
       <c r="C56">
         <v>2016</v>
       </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
       <c r="E56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="42">
+        <v>30</v>
+      </c>
+      <c r="H56" s="1">
+        <v>289.5</v>
+      </c>
+      <c r="I56">
+        <f>COUNTA(A56:H56)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="44">
+        <v>42618</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -4602,25 +4701,29 @@
       <c r="C57">
         <v>2016</v>
       </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
       <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="42">
+        <v>40</v>
+      </c>
+      <c r="H57" s="1">
+        <v>736</v>
+      </c>
+      <c r="I57">
+        <f>COUNTA(A57:H57)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="44">
+        <v>42620</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -4628,25 +4731,29 @@
       <c r="C58">
         <v>2016</v>
       </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
       <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>97</v>
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="42">
+        <v>300</v>
+      </c>
+      <c r="H58" s="1">
+        <v>13800</v>
+      </c>
+      <c r="I58">
+        <f>COUNTA(A58:H58)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="44">
+        <v>42620</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -4654,25 +4761,29 @@
       <c r="C59">
         <v>2016</v>
       </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
       <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>98</v>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="42">
+        <v>30</v>
+      </c>
+      <c r="H59" s="1">
+        <v>900</v>
+      </c>
+      <c r="I59">
+        <f>COUNTA(A59:H59)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="44">
+        <v>42637</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -4680,25 +4791,29 @@
       <c r="C60">
         <v>2016</v>
       </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
       <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="2">
-        <v>533.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="42">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1">
+        <v>138</v>
+      </c>
+      <c r="I60">
+        <f>COUNTA(A60:H60)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="44">
+        <v>42643</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -4706,366 +4821,272 @@
       <c r="C61">
         <v>2016</v>
       </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
       <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="42">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" t="s">
-        <v>52</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="H61" s="1">
+        <v>380</v>
+      </c>
+      <c r="I61">
+        <f>COUNTA(A61:H61)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="44">
+        <v>42661</v>
+      </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>2016</v>
       </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
       <c r="E62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" t="s">
-        <v>40</v>
-      </c>
-      <c r="J62" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="42">
+        <v>80</v>
+      </c>
+      <c r="H62" s="1">
+        <v>122</v>
+      </c>
+      <c r="I62">
+        <f>COUNTA(A62:H62)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="44">
+        <v>42692</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>2016</v>
       </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
       <c r="E63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="42">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1">
+        <v>250</v>
+      </c>
+      <c r="I63">
+        <f>COUNTA(A63:H63)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="44">
+        <v>42713</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>2016</v>
       </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
       <c r="E64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
         <v>16</v>
       </c>
-      <c r="I64" t="s">
-        <v>43</v>
-      </c>
-      <c r="J64" s="2">
-        <v>289.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>102</v>
+      <c r="G64" s="42">
+        <v>200</v>
+      </c>
+      <c r="H64" s="1">
+        <v>598</v>
+      </c>
+      <c r="I64">
+        <f>COUNTA(A64:H64)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="44">
+        <v>42720</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>2016</v>
       </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
       <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="2">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="42">
+        <v>300</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I65">
+        <f>COUNTA(A65:H65)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="44">
+        <v>42731</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>2016</v>
       </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
       <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
         <v>28</v>
       </c>
-      <c r="I66" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" s="2">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>103</v>
+      <c r="G66" s="42">
+        <v>50</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1739.9999999999998</v>
+      </c>
+      <c r="I66">
+        <f>COUNTA(A66:H66)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="44">
+        <v>42731</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="42">
+        <v>40</v>
+      </c>
+      <c r="H67" s="1">
+        <v>510</v>
+      </c>
+      <c r="I67">
+        <f>COUNTA(A67:H67)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="44">
+        <v>42731</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>2016</v>
       </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
       <c r="E68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
         <v>10</v>
       </c>
-      <c r="H68" t="s">
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="42">
+        <v>20</v>
+      </c>
+      <c r="H68" s="1">
+        <v>920</v>
+      </c>
+      <c r="I68">
+        <f>COUNTA(A68:H68)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="44">
+        <v>42731</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69">
+        <v>2016</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
         <v>18</v>
       </c>
-      <c r="I68" t="s">
-        <v>37</v>
-      </c>
-      <c r="J68" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70">
-        <v>2016</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71">
-        <v>2016</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72">
-        <v>2016</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73">
-        <v>2016</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s">
-        <v>47</v>
-      </c>
-      <c r="J73" s="2">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74">
-        <v>2016</v>
-      </c>
-      <c r="E74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="2">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75">
-        <v>2016</v>
-      </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1739.9999999999998</v>
+      <c r="G69" s="42">
+        <v>40</v>
+      </c>
+      <c r="H69" s="1">
+        <v>280</v>
+      </c>
+      <c r="I69">
+        <f>COUNTA(A69:H69)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
+  <autoFilter ref="A4:I69" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I69">
+      <sortCondition ref="A5:A69"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5075,449 +5096,449 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="8" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="4"/>
+    <col min="8" max="8" width="5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="I3" s="7"/>
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="21" t="s">
+    <row r="5" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="G5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1000</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="I6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1010</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1020</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="J8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1030</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>1000</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>2000</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>3000</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="9" t="s">
+    <row r="10" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2000</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>1010</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>2010</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>3010</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>4010</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="9" t="s">
+    <row r="11" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2010</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>1020</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>2020</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>3020</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>4020</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="9" t="s">
+    <row r="12" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>2020</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>1030</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>2030</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>3030</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>4030</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="9" t="s">
+    <row r="13" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>2030</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>SUM(J9:J12)</f>
         <v>4060</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f>SUM(K9:K12)</f>
         <v>8060</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f>SUM(L9:L12)</f>
         <v>12060</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f>SUM(M9:M12)</f>
         <v>16060</v>
       </c>
     </row>
-    <row r="14" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="9" t="s">
+    <row r="14" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="9" t="s">
+    <row r="15" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>3010</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="9" t="s">
+    <row r="16" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>3020</v>
       </c>
     </row>
-    <row r="17" spans="3:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="9" t="s">
+    <row r="17" spans="3:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>3030</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="9" t="s">
+    <row r="18" spans="3:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="9" t="s">
+    <row r="19" spans="3:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>4010</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="9" t="s">
+    <row r="20" spans="3:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>4020</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="9" t="s">
+    <row r="21" spans="3:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>4030</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="34" spans="15:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="34" spans="15:16" ht="15" x14ac:dyDescent="0.2">
       <c r="P34"/>
     </row>
-    <row r="38" spans="15:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:16" ht="15" x14ac:dyDescent="0.2">
       <c r="O38"/>
     </row>
   </sheetData>
@@ -5534,50 +5555,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>126</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -5596,8 +5617,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -5616,8 +5637,8 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B7">
@@ -5636,8 +5657,8 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B8">
@@ -5656,9 +5677,9 @@
         <v>10120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>125</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B9">
         <v>4060</v>
@@ -5688,35 +5709,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>126</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B4">
@@ -5729,8 +5750,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B5">
@@ -5743,8 +5764,8 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -5757,8 +5778,8 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B7">
@@ -5771,9 +5792,9 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>125</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B8">
         <v>4060</v>
@@ -5797,481 +5818,481 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="22">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21">
         <v>1000</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="22">
+        <v>41</v>
+      </c>
+      <c r="I9" s="21">
         <v>1010</v>
       </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="22">
+        <v>41</v>
+      </c>
+      <c r="I10" s="21">
         <v>1020</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="22">
+        <v>41</v>
+      </c>
+      <c r="I11" s="21">
         <v>1030</v>
       </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="H12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="24">
         <v>2000</v>
       </c>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="H13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="24">
         <v>2010</v>
       </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="H14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="24">
         <v>2020</v>
       </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="H15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="24">
         <v>2030</v>
       </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="H16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="24">
         <v>2040</v>
       </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="H17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="24">
         <v>2050</v>
       </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="25">
+      <c r="H18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="24">
         <v>2060</v>
       </c>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="H19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="24">
         <v>3000</v>
       </c>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="25">
+      <c r="H20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="24">
         <v>3010</v>
       </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="H21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="24">
         <v>3020</v>
       </c>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="H22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="24">
         <v>3030</v>
       </c>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="H23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="24">
         <v>3040</v>
       </c>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="25">
+      <c r="H24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="24">
         <v>3050</v>
       </c>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="25">
+      <c r="H25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="24">
         <v>3060</v>
       </c>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="25">
+      <c r="H26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="24">
         <v>4000</v>
       </c>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="25">
+      <c r="H27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="24">
         <v>4010</v>
       </c>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="25">
+      <c r="H28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="24">
         <v>4020</v>
       </c>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="H29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="24">
         <v>4030</v>
       </c>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="25">
+      <c r="H30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="24">
         <v>4040</v>
       </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="24" t="s">
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="25">
+      <c r="H31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="24">
         <v>4050</v>
       </c>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="24" t="s">
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I32" s="25">
+      <c r="H32" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="24">
         <v>4060</v>
       </c>
-      <c r="J32" s="23"/>
+      <c r="J32" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6286,56 +6307,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD658978-F470-4551-9A14-4ED534D1D062}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="28">
+        <v>58</v>
+      </c>
+      <c r="B2" s="27">
         <v>43019.907893518517</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="29"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="28">
+        <v>59</v>
+      </c>
+      <c r="B3" s="27">
         <v>43020.477141203701</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="28">
+        <v>56</v>
+      </c>
+      <c r="B4" s="27">
         <v>43021.999988425923</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="G4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B4" xr:uid="{9AA4CA07-B23B-4869-B743-DA46B4730FC1}"/>
